--- a/models/Multi_dimentional_data_covar/04_Koalition_1.xlsx
+++ b/models/Multi_dimentional_data_covar/04_Koalition_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="-15" windowWidth="15480" windowHeight="11010"/>
+    <workbookView xWindow="2440" yWindow="-20" windowWidth="15480" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Gewünschte Koalition</t>
   </si>
@@ -46,6 +51,9 @@
   </si>
   <si>
     <t>SPD-Grüne-Linke</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -135,14 +143,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -150,23 +158,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,7 +244,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,21 +548,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="24"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
@@ -564,7 +572,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
@@ -574,7 +582,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -582,7 +590,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -590,7 +598,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="20" customHeight="1">
       <c r="B5" s="33" t="s">
         <v>0</v>
       </c>
@@ -601,7 +609,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -610,7 +618,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -619,7 +627,10 @@
       <c r="G7" s="4"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,12 +651,12 @@
       </c>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="F9" s="10"/>
       <c r="G9" s="17"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="9">
         <v>35447</v>
       </c>
@@ -666,7 +677,7 @@
       </c>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="9">
         <v>35510</v>
       </c>
@@ -687,7 +698,7 @@
       </c>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="9">
         <v>35566</v>
       </c>
@@ -708,7 +719,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="9">
         <v>35671</v>
       </c>
@@ -729,7 +740,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="9">
         <v>35720</v>
       </c>
@@ -750,7 +761,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="9">
         <v>35748</v>
       </c>
@@ -771,7 +782,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="9">
         <v>35776</v>
       </c>
@@ -792,7 +803,7 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="9">
         <v>35811</v>
       </c>
@@ -813,7 +824,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="9">
         <v>35839</v>
       </c>
@@ -834,7 +845,7 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="9">
         <v>35867</v>
       </c>
@@ -855,7 +866,7 @@
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="9">
         <v>35902</v>
       </c>
@@ -876,7 +887,7 @@
       </c>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="9">
         <v>35930</v>
       </c>
@@ -897,7 +908,7 @@
       </c>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="9">
         <v>35965</v>
       </c>
@@ -918,7 +929,7 @@
       </c>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="9">
         <v>35993</v>
       </c>
@@ -939,7 +950,7 @@
       </c>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="9">
         <v>36021</v>
       </c>
@@ -960,7 +971,7 @@
       </c>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="9">
         <v>36042</v>
       </c>
@@ -981,7 +992,7 @@
       </c>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="9">
         <v>36049</v>
       </c>
@@ -1002,7 +1013,7 @@
       </c>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="9">
         <v>36056</v>
       </c>
@@ -1023,7 +1034,7 @@
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="9">
         <v>36182</v>
       </c>
@@ -1044,7 +1055,7 @@
       </c>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="9">
         <v>36238</v>
       </c>
@@ -1065,7 +1076,7 @@
       </c>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="9">
         <v>36266</v>
       </c>
@@ -1086,7 +1097,7 @@
       </c>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="9">
         <v>36301</v>
       </c>
@@ -1107,7 +1118,7 @@
       </c>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="9">
         <v>36364</v>
       </c>
@@ -1128,7 +1139,7 @@
       </c>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="9">
         <v>36427</v>
       </c>
@@ -1149,7 +1160,7 @@
       </c>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="9">
         <v>36476</v>
       </c>
@@ -1170,7 +1181,7 @@
       </c>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="9">
         <v>36546</v>
       </c>
@@ -1191,7 +1202,7 @@
       </c>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="9">
         <v>36602</v>
       </c>
@@ -1212,7 +1223,7 @@
       </c>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="9">
         <v>36665</v>
       </c>
@@ -1233,7 +1244,7 @@
       </c>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="9">
         <v>36735</v>
       </c>
@@ -1254,7 +1265,7 @@
       </c>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="9">
         <v>36763</v>
       </c>
@@ -1275,7 +1286,7 @@
       </c>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="9">
         <v>36791</v>
       </c>
@@ -1296,7 +1307,7 @@
       </c>
       <c r="H40" s="26"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="9">
         <v>36847</v>
       </c>
@@ -1317,7 +1328,7 @@
       </c>
       <c r="H41" s="26"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="9">
         <v>36910</v>
       </c>
@@ -1338,7 +1349,7 @@
       </c>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="9">
         <v>36938</v>
       </c>
@@ -1359,7 +1370,7 @@
       </c>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="9">
         <v>36966</v>
       </c>
@@ -1380,7 +1391,7 @@
       </c>
       <c r="H44" s="26"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="9">
         <v>37029</v>
       </c>
@@ -1401,7 +1412,7 @@
       </c>
       <c r="H45" s="26"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="9">
         <v>37064</v>
       </c>
@@ -1422,7 +1433,7 @@
       </c>
       <c r="H46" s="26"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="9">
         <v>37092</v>
       </c>
@@ -1443,7 +1454,7 @@
       </c>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="9">
         <v>37127</v>
       </c>
@@ -1464,7 +1475,7 @@
       </c>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49" s="9">
         <v>37148</v>
       </c>
@@ -1485,7 +1496,7 @@
       </c>
       <c r="H49" s="26"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50" s="9">
         <v>37176</v>
       </c>
@@ -1506,7 +1517,7 @@
       </c>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8">
       <c r="B51" s="9">
         <v>37211</v>
       </c>
@@ -1527,7 +1538,7 @@
       </c>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8">
       <c r="B52" s="9">
         <v>37239</v>
       </c>
@@ -1548,7 +1559,7 @@
       </c>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8">
       <c r="B53" s="9">
         <v>37267</v>
       </c>
@@ -1569,7 +1580,7 @@
       </c>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8">
       <c r="B54" s="9">
         <v>37274</v>
       </c>
@@ -1590,7 +1601,7 @@
       </c>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8">
       <c r="B55" s="9">
         <v>37295</v>
       </c>
@@ -1611,7 +1622,7 @@
       </c>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8">
       <c r="B56" s="9">
         <v>37309</v>
       </c>
@@ -1632,7 +1643,7 @@
       </c>
       <c r="H56" s="26"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8">
       <c r="B57" s="9">
         <v>37323</v>
       </c>
@@ -1653,7 +1664,7 @@
       </c>
       <c r="H57" s="26"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8">
       <c r="B58" s="9">
         <v>37337</v>
       </c>
@@ -1674,7 +1685,7 @@
       </c>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8">
       <c r="B59" s="9">
         <v>37358</v>
       </c>
@@ -1695,7 +1706,7 @@
       </c>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8">
       <c r="B60" s="9">
         <v>37372</v>
       </c>
@@ -1716,7 +1727,7 @@
       </c>
       <c r="H60" s="26"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8">
       <c r="B61" s="9">
         <v>37386</v>
       </c>
@@ -1737,7 +1748,7 @@
       </c>
       <c r="H61" s="26"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8">
       <c r="B62" s="9">
         <v>37407</v>
       </c>
@@ -1758,7 +1769,7 @@
       </c>
       <c r="H62" s="26"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="B63" s="9">
         <v>37421</v>
       </c>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="B64" s="9">
         <v>37435</v>
       </c>
@@ -1800,7 +1811,7 @@
       </c>
       <c r="H64" s="26"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8">
       <c r="B65" s="9">
         <v>37449</v>
       </c>
@@ -1821,7 +1832,7 @@
       </c>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8">
       <c r="B66" s="9">
         <v>37463</v>
       </c>
@@ -1842,7 +1853,7 @@
       </c>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8">
       <c r="B67" s="9">
         <v>37477</v>
       </c>
@@ -1863,7 +1874,7 @@
       </c>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8">
       <c r="B68" s="9">
         <v>37484</v>
       </c>
@@ -1884,7 +1895,7 @@
       </c>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8">
       <c r="B69" s="9">
         <v>37491</v>
       </c>
@@ -1905,7 +1916,7 @@
       </c>
       <c r="H69" s="26"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8">
       <c r="B70" s="9">
         <v>37498</v>
       </c>
@@ -1926,7 +1937,7 @@
       </c>
       <c r="H70" s="26"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8">
       <c r="B71" s="9">
         <v>37505</v>
       </c>
@@ -1947,7 +1958,7 @@
       </c>
       <c r="H71" s="26"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8">
       <c r="B72" s="9">
         <v>37512</v>
       </c>
@@ -1968,7 +1979,7 @@
       </c>
       <c r="H72" s="26"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8">
       <c r="B73" s="9">
         <v>37575</v>
       </c>
@@ -1989,7 +2000,7 @@
       </c>
       <c r="H73" s="26"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8">
       <c r="B74" s="9">
         <v>37645</v>
       </c>
@@ -2010,7 +2021,7 @@
       </c>
       <c r="H74" s="26"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8">
       <c r="B75" s="9">
         <v>37673</v>
       </c>
@@ -2031,7 +2042,7 @@
       </c>
       <c r="H75" s="26"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8">
       <c r="B76" s="9">
         <v>37708</v>
       </c>
@@ -2052,7 +2063,7 @@
       </c>
       <c r="H76" s="26"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8">
       <c r="B77" s="9">
         <v>37722</v>
       </c>
@@ -2073,7 +2084,7 @@
       </c>
       <c r="H77" s="26"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8">
       <c r="B78" s="9">
         <v>37757</v>
       </c>
@@ -2094,7 +2105,7 @@
       </c>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8">
       <c r="B79" s="9">
         <v>37778</v>
       </c>
@@ -2115,7 +2126,7 @@
       </c>
       <c r="H79" s="26"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8">
       <c r="B80" s="9">
         <v>37799</v>
       </c>
@@ -2136,7 +2147,7 @@
       </c>
       <c r="H80" s="26"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8">
       <c r="B81" s="9">
         <v>37820</v>
       </c>
@@ -2157,7 +2168,7 @@
       </c>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8">
       <c r="B82" s="9">
         <v>37855</v>
       </c>
@@ -2178,7 +2189,7 @@
       </c>
       <c r="H82" s="26"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8">
       <c r="B83" s="9">
         <v>37876</v>
       </c>
@@ -2199,7 +2210,7 @@
       </c>
       <c r="H83" s="26"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8">
       <c r="B84" s="9">
         <v>37918</v>
       </c>
@@ -2220,7 +2231,7 @@
       </c>
       <c r="H84" s="26"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8">
       <c r="B85" s="9">
         <v>37939</v>
       </c>
@@ -2241,7 +2252,7 @@
       </c>
       <c r="H85" s="26"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8">
       <c r="B86" s="9">
         <v>37953</v>
       </c>
@@ -2262,7 +2273,7 @@
       </c>
       <c r="H86" s="26"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8">
       <c r="B87" s="9">
         <v>37967</v>
       </c>
@@ -2283,7 +2294,7 @@
       </c>
       <c r="H87" s="26"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8">
       <c r="B88" s="9">
         <v>38002</v>
       </c>
@@ -2304,7 +2315,7 @@
       </c>
       <c r="H88" s="26"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8">
       <c r="B89" s="9">
         <v>38030</v>
       </c>
@@ -2325,7 +2336,7 @@
       </c>
       <c r="H89" s="26"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8">
       <c r="B90" s="9">
         <v>38051</v>
       </c>
@@ -2346,7 +2357,7 @@
       </c>
       <c r="H90" s="26"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8">
       <c r="B91" s="9">
         <v>38065</v>
       </c>
@@ -2367,7 +2378,7 @@
       </c>
       <c r="H91" s="26"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8">
       <c r="B92" s="9">
         <v>38079</v>
       </c>
@@ -2388,7 +2399,7 @@
       </c>
       <c r="H92" s="26"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8">
       <c r="B93" s="9">
         <v>38100</v>
       </c>
@@ -2409,7 +2420,7 @@
       </c>
       <c r="H93" s="26"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8">
       <c r="B94" s="9">
         <v>38121</v>
       </c>
@@ -2430,7 +2441,7 @@
       </c>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8">
       <c r="B95" s="9">
         <v>38135</v>
       </c>
@@ -2451,7 +2462,7 @@
       </c>
       <c r="H95" s="26"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8">
       <c r="B96" s="9">
         <v>38163</v>
       </c>
@@ -2472,7 +2483,7 @@
       </c>
       <c r="H96" s="26"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8">
       <c r="B97" s="9">
         <v>38177</v>
       </c>
@@ -2493,7 +2504,7 @@
       </c>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8">
       <c r="B98" s="9">
         <v>38191</v>
       </c>
@@ -2514,7 +2525,7 @@
       </c>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8">
       <c r="B99" s="9">
         <v>38226</v>
       </c>
@@ -2535,7 +2546,7 @@
       </c>
       <c r="H99" s="26"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8">
       <c r="B100" s="9">
         <v>38254</v>
       </c>
@@ -2556,7 +2567,7 @@
       </c>
       <c r="H100" s="26"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8">
       <c r="B101" s="9">
         <v>38275</v>
       </c>
@@ -2577,7 +2588,7 @@
       </c>
       <c r="H101" s="26"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8">
       <c r="B102" s="9">
         <v>38289</v>
       </c>
@@ -2598,7 +2609,7 @@
       </c>
       <c r="H102" s="26"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8">
       <c r="B103" s="9">
         <v>38303</v>
       </c>
@@ -2619,7 +2630,7 @@
       </c>
       <c r="H103" s="26"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8">
       <c r="B104" s="9">
         <v>38317</v>
       </c>
@@ -2640,7 +2651,7 @@
       </c>
       <c r="H104" s="26"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8">
       <c r="B105" s="9">
         <v>38331</v>
       </c>
@@ -2661,7 +2672,7 @@
       </c>
       <c r="H105" s="26"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8">
       <c r="B106" s="9">
         <v>38366</v>
       </c>
@@ -2682,7 +2693,7 @@
       </c>
       <c r="H106" s="26"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8">
       <c r="B107" s="9">
         <v>38380</v>
       </c>
@@ -2703,7 +2714,7 @@
       </c>
       <c r="H107" s="26"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8">
       <c r="B108" s="9">
         <v>38408</v>
       </c>
@@ -2724,7 +2735,7 @@
       </c>
       <c r="H108" s="26"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8">
       <c r="B109" s="9">
         <v>38429</v>
       </c>
@@ -2745,7 +2756,7 @@
       </c>
       <c r="H109" s="26"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8">
       <c r="B110" s="9">
         <v>38457</v>
       </c>
@@ -2766,7 +2777,7 @@
       </c>
       <c r="H110" s="26"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8">
       <c r="B111" s="9">
         <v>38471</v>
       </c>
@@ -2787,7 +2798,7 @@
       </c>
       <c r="H111" s="26"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8">
       <c r="B112" s="9">
         <v>38499</v>
       </c>
@@ -2808,7 +2819,7 @@
       </c>
       <c r="H112" s="26"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8">
       <c r="B113" s="9">
         <v>38513</v>
       </c>
@@ -2829,7 +2840,7 @@
       </c>
       <c r="H113" s="26"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8">
       <c r="B114" s="9">
         <v>38527</v>
       </c>
@@ -2850,7 +2861,7 @@
       </c>
       <c r="H114" s="26"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8">
       <c r="B115" s="9">
         <v>38541</v>
       </c>
@@ -2871,7 +2882,7 @@
       </c>
       <c r="H115" s="26"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8">
       <c r="B116" s="9">
         <v>38555</v>
       </c>
@@ -2892,7 +2903,7 @@
       </c>
       <c r="H116" s="26"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8">
       <c r="B117" s="9">
         <v>38569</v>
       </c>
@@ -2913,7 +2924,7 @@
       </c>
       <c r="H117" s="26"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8">
       <c r="B118" s="9">
         <v>38576</v>
       </c>
@@ -2934,7 +2945,7 @@
       </c>
       <c r="H118" s="26"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8">
       <c r="B119" s="9">
         <v>38583</v>
       </c>
@@ -2955,7 +2966,7 @@
       </c>
       <c r="H119" s="26"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8">
       <c r="B120" s="9">
         <v>38590</v>
       </c>
@@ -2976,7 +2987,7 @@
       </c>
       <c r="H120" s="26"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8">
       <c r="B121" s="9">
         <v>38597</v>
       </c>
@@ -2997,7 +3008,7 @@
       </c>
       <c r="H121" s="26"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8">
       <c r="B122" s="9">
         <v>38604</v>
       </c>
@@ -3018,7 +3029,7 @@
       </c>
       <c r="H122" s="26"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8">
       <c r="B123" s="9">
         <v>38681</v>
       </c>
@@ -3039,7 +3050,7 @@
       </c>
       <c r="H123" s="26"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8">
       <c r="B124" s="9">
         <v>38695</v>
       </c>
@@ -3060,7 +3071,7 @@
       </c>
       <c r="H124" s="26"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8">
       <c r="B125" s="9">
         <v>38730</v>
       </c>
@@ -3081,7 +3092,7 @@
       </c>
       <c r="H125" s="26"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8">
       <c r="B126" s="9">
         <v>38744</v>
       </c>
@@ -3102,7 +3113,7 @@
       </c>
       <c r="H126" s="26"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8">
       <c r="B127" s="9">
         <v>38765</v>
       </c>
@@ -3123,7 +3134,7 @@
       </c>
       <c r="H127" s="26"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8">
       <c r="B128" s="9">
         <v>38786</v>
       </c>
@@ -3144,7 +3155,7 @@
       </c>
       <c r="H128" s="26"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8">
       <c r="B129" s="9">
         <v>38814</v>
       </c>
@@ -3165,7 +3176,7 @@
       </c>
       <c r="H129" s="26"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8">
       <c r="B130" s="9">
         <v>38835</v>
       </c>
@@ -3186,7 +3197,7 @@
       </c>
       <c r="H130" s="26"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8">
       <c r="B131" s="9">
         <v>38856</v>
       </c>
@@ -3207,7 +3218,7 @@
       </c>
       <c r="H131" s="26"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8">
       <c r="B132" s="9">
         <v>38884</v>
       </c>
@@ -3228,7 +3239,7 @@
       </c>
       <c r="H132" s="26"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8">
       <c r="B133" s="9">
         <v>38912</v>
       </c>
@@ -3249,7 +3260,7 @@
       </c>
       <c r="H133" s="26"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8">
       <c r="B134" s="9">
         <v>38947</v>
       </c>
@@ -3270,7 +3281,7 @@
       </c>
       <c r="H134" s="26"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8">
       <c r="B135" s="9">
         <v>38961</v>
       </c>
@@ -3291,7 +3302,7 @@
       </c>
       <c r="H135" s="26"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8">
       <c r="B136" s="9">
         <v>38989</v>
       </c>
@@ -3312,7 +3323,7 @@
       </c>
       <c r="H136" s="26"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8">
       <c r="B137" s="9">
         <v>39003</v>
       </c>
@@ -3333,7 +3344,7 @@
       </c>
       <c r="H137" s="26"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8">
       <c r="B138" s="9">
         <v>39017</v>
       </c>
@@ -3354,7 +3365,7 @@
       </c>
       <c r="H138" s="26"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8">
       <c r="B139" s="9">
         <v>39031</v>
       </c>
@@ -3375,7 +3386,7 @@
       </c>
       <c r="H139" s="26"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8">
       <c r="B140" s="9">
         <v>39045</v>
       </c>
@@ -3396,7 +3407,7 @@
       </c>
       <c r="H140" s="26"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8">
       <c r="B141" s="9">
         <v>39066</v>
       </c>
@@ -3417,7 +3428,7 @@
       </c>
       <c r="H141" s="26"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8">
       <c r="B142" s="9">
         <v>39094</v>
       </c>
@@ -3438,7 +3449,7 @@
       </c>
       <c r="H142" s="26"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8">
       <c r="B143" s="9">
         <v>39122</v>
       </c>
@@ -3459,7 +3470,7 @@
       </c>
       <c r="H143" s="26"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8">
       <c r="B144" s="9">
         <v>39143</v>
       </c>
@@ -3480,7 +3491,7 @@
       </c>
       <c r="H144" s="26"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8">
       <c r="B145" s="9">
         <v>39157</v>
       </c>
@@ -3501,7 +3512,7 @@
       </c>
       <c r="H145" s="26"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8">
       <c r="B146" s="9">
         <v>39171</v>
       </c>
@@ -3522,7 +3533,7 @@
       </c>
       <c r="H146" s="26"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8">
       <c r="B147" s="9">
         <v>39192</v>
       </c>
@@ -3543,7 +3554,7 @@
       </c>
       <c r="H147" s="26"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8">
       <c r="B148" s="9">
         <v>39220</v>
       </c>
@@ -3564,7 +3575,7 @@
       </c>
       <c r="H148" s="26"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8">
       <c r="B149" s="9">
         <v>39234</v>
       </c>
@@ -3585,7 +3596,7 @@
       </c>
       <c r="H149" s="26"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8">
       <c r="B150" s="9">
         <v>39255</v>
       </c>
@@ -3606,7 +3617,7 @@
       </c>
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8">
       <c r="B151" s="9">
         <v>39283</v>
       </c>
@@ -3627,7 +3638,7 @@
       </c>
       <c r="H151" s="26"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8">
       <c r="B152" s="9">
         <v>39311</v>
       </c>
@@ -3648,7 +3659,7 @@
       </c>
       <c r="H152" s="26"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8">
       <c r="B153" s="9">
         <v>39339</v>
       </c>
@@ -3669,7 +3680,7 @@
       </c>
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8">
       <c r="B154" s="9">
         <v>39360</v>
       </c>
@@ -3690,7 +3701,7 @@
       </c>
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8">
       <c r="B155" s="9">
         <v>39374</v>
       </c>
@@ -3711,7 +3722,7 @@
       </c>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8">
       <c r="B156" s="9">
         <v>39395</v>
       </c>
@@ -3732,7 +3743,7 @@
       </c>
       <c r="H156" s="26"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8">
       <c r="B157" s="9">
         <v>39409</v>
       </c>
@@ -3753,7 +3764,7 @@
       </c>
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8">
       <c r="B158" s="9">
         <v>39430</v>
       </c>
@@ -3774,7 +3785,7 @@
       </c>
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8">
       <c r="B159" s="9">
         <v>39458</v>
       </c>
@@ -3795,7 +3806,7 @@
       </c>
       <c r="H159" s="26"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8">
       <c r="B160" s="9">
         <v>39486</v>
       </c>
@@ -3816,7 +3827,7 @@
       </c>
       <c r="H160" s="26"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8">
       <c r="B161" s="9">
         <v>39507</v>
       </c>
@@ -3837,7 +3848,7 @@
       </c>
       <c r="H161" s="26"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8">
       <c r="B162" s="9">
         <v>39521</v>
       </c>
@@ -3858,7 +3869,7 @@
       </c>
       <c r="H162" s="26"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8">
       <c r="B163" s="9">
         <v>39542</v>
       </c>
@@ -3879,7 +3890,7 @@
       </c>
       <c r="H163" s="26"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8">
       <c r="B164" s="9">
         <v>39556</v>
       </c>
@@ -3900,7 +3911,7 @@
       </c>
       <c r="H164" s="26"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8">
       <c r="B165" s="9">
         <v>39577</v>
       </c>
@@ -3921,7 +3932,7 @@
       </c>
       <c r="H165" s="26"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8">
       <c r="B166" s="9">
         <v>39598</v>
       </c>
@@ -3942,7 +3953,7 @@
       </c>
       <c r="H166" s="26"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8">
       <c r="B167" s="9">
         <v>39612</v>
       </c>
@@ -3963,7 +3974,7 @@
       </c>
       <c r="H167" s="26"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8">
       <c r="B168" s="9">
         <v>39640</v>
       </c>
@@ -3984,7 +3995,7 @@
       </c>
       <c r="H168" s="26"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8">
       <c r="B169" s="9">
         <v>39675</v>
       </c>
@@ -4005,7 +4016,7 @@
       </c>
       <c r="H169" s="26"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8">
       <c r="B170" s="9">
         <v>39703</v>
       </c>
@@ -4026,7 +4037,7 @@
       </c>
       <c r="H170" s="26"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8">
       <c r="B171" s="9">
         <v>39731</v>
       </c>
@@ -4047,7 +4058,7 @@
       </c>
       <c r="H171" s="26"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8">
       <c r="B172" s="9">
         <v>39745</v>
       </c>
@@ -4068,7 +4079,7 @@
       </c>
       <c r="H172" s="26"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8">
       <c r="B173" s="9">
         <v>39759</v>
       </c>
@@ -4089,7 +4100,7 @@
       </c>
       <c r="H173" s="26"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8">
       <c r="B174" s="9">
         <v>39773</v>
       </c>
@@ -4110,7 +4121,7 @@
       </c>
       <c r="H174" s="26"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8">
       <c r="B175" s="9">
         <v>39794</v>
       </c>
@@ -4131,7 +4142,7 @@
       </c>
       <c r="H175" s="26"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8">
       <c r="B176" s="9">
         <v>39822</v>
       </c>
@@ -4152,7 +4163,7 @@
       </c>
       <c r="H176" s="26"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8">
       <c r="B177" s="9">
         <v>39843</v>
       </c>
@@ -4173,7 +4184,7 @@
       </c>
       <c r="H177" s="26"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8">
       <c r="B178" s="9">
         <v>39857</v>
       </c>
@@ -4194,7 +4205,7 @@
       </c>
       <c r="H178" s="26"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8">
       <c r="B179" s="9">
         <v>39878</v>
       </c>
@@ -4215,7 +4226,7 @@
       </c>
       <c r="H179" s="26"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8">
       <c r="B180" s="9">
         <v>39899</v>
       </c>
@@ -4236,7 +4247,7 @@
       </c>
       <c r="H180" s="26"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8">
       <c r="B181" s="9">
         <v>39927</v>
       </c>
@@ -4257,7 +4268,7 @@
       </c>
       <c r="H181" s="26"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8">
       <c r="B182" s="9">
         <v>39941</v>
       </c>
@@ -4278,7 +4289,7 @@
       </c>
       <c r="H182" s="26"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8">
       <c r="B183" s="9">
         <v>39962</v>
       </c>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="H183" s="26"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8">
       <c r="B184" s="9">
         <v>39976</v>
       </c>
@@ -4320,7 +4331,7 @@
       </c>
       <c r="H184" s="26"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8">
       <c r="B185" s="9">
         <v>39997</v>
       </c>
@@ -4341,7 +4352,7 @@
       </c>
       <c r="H185" s="26"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8">
       <c r="B186" s="9">
         <v>40018</v>
       </c>
@@ -4362,7 +4373,7 @@
       </c>
       <c r="H186" s="26"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8">
       <c r="B187" s="9">
         <v>40032</v>
       </c>
@@ -4383,7 +4394,7 @@
       </c>
       <c r="H187" s="26"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8">
       <c r="B188" s="9">
         <v>40046</v>
       </c>
@@ -4404,7 +4415,7 @@
       </c>
       <c r="H188" s="26"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8">
       <c r="B189" s="9">
         <v>40053</v>
       </c>
@@ -4425,7 +4436,7 @@
       </c>
       <c r="H189" s="26"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8">
       <c r="B190" s="9">
         <v>40060</v>
       </c>
@@ -4446,7 +4457,7 @@
       </c>
       <c r="H190" s="26"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8">
       <c r="B191" s="9">
         <v>40067</v>
       </c>
@@ -4467,7 +4478,7 @@
       </c>
       <c r="H191" s="26"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8">
       <c r="B192" s="9">
         <v>40074</v>
       </c>
@@ -4488,7 +4499,7 @@
       </c>
       <c r="H192" s="26"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8">
       <c r="B193" s="9">
         <v>40144</v>
       </c>
@@ -4509,7 +4520,7 @@
       </c>
       <c r="H193" s="26"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8">
       <c r="B194" s="9">
         <v>40158</v>
       </c>
@@ -4530,7 +4541,7 @@
       </c>
       <c r="H194" s="26"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8">
       <c r="B195" s="9">
         <v>40193</v>
       </c>
@@ -4551,7 +4562,7 @@
       </c>
       <c r="H195" s="26"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8">
       <c r="B196" s="9">
         <v>40207</v>
       </c>
@@ -4572,7 +4583,7 @@
       </c>
       <c r="H196" s="26"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8">
       <c r="B197" s="9">
         <v>40235</v>
       </c>
@@ -4593,7 +4604,7 @@
       </c>
       <c r="H197" s="26"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8">
       <c r="B198" s="9">
         <v>40249</v>
       </c>
@@ -4614,7 +4625,7 @@
       </c>
       <c r="H198" s="26"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8">
       <c r="B199" s="9">
         <v>40263</v>
       </c>
@@ -4635,7 +4646,7 @@
       </c>
       <c r="H199" s="26"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8">
       <c r="B200" s="9">
         <v>40291</v>
       </c>
@@ -4656,7 +4667,7 @@
       </c>
       <c r="H200" s="26"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8">
       <c r="B201" s="9">
         <v>40319</v>
       </c>
@@ -4677,7 +4688,7 @@
       </c>
       <c r="H201" s="26"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8">
       <c r="B202" s="9">
         <v>40333</v>
       </c>
@@ -4698,7 +4709,7 @@
       </c>
       <c r="H202" s="26"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8">
       <c r="B203" s="9">
         <v>40347</v>
       </c>
@@ -4719,7 +4730,7 @@
       </c>
       <c r="H203" s="26"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8">
       <c r="B204" s="9">
         <v>40375</v>
       </c>
@@ -4740,7 +4751,7 @@
       </c>
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8">
       <c r="B205" s="9">
         <v>40417</v>
       </c>
@@ -4761,7 +4772,7 @@
       </c>
       <c r="H205" s="26"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8">
       <c r="B206" s="9">
         <v>40431</v>
       </c>
@@ -4782,7 +4793,7 @@
       </c>
       <c r="H206" s="26"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8">
       <c r="B207" s="9">
         <v>40445</v>
       </c>
@@ -4803,7 +4814,7 @@
       </c>
       <c r="H207" s="26"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8">
       <c r="B208" s="9">
         <v>40452</v>
       </c>
@@ -4824,7 +4835,7 @@
       </c>
       <c r="H208" s="26"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8">
       <c r="B209" s="9">
         <v>40473</v>
       </c>
@@ -4845,7 +4856,7 @@
       </c>
       <c r="H209" s="26"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8">
       <c r="B210" s="9">
         <v>40494</v>
       </c>
@@ -4866,7 +4877,7 @@
       </c>
       <c r="H210" s="26"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8">
       <c r="B211" s="9">
         <v>40515</v>
       </c>
@@ -4887,7 +4898,7 @@
       </c>
       <c r="H211" s="26"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8">
       <c r="B212" s="9">
         <v>40529</v>
       </c>
@@ -4908,7 +4919,7 @@
       </c>
       <c r="H212" s="26"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8">
       <c r="B213" s="9">
         <v>40557</v>
       </c>
@@ -4929,7 +4940,7 @@
       </c>
       <c r="H213" s="26"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8">
       <c r="B214" s="9">
         <v>40571</v>
       </c>
@@ -4950,7 +4961,7 @@
       </c>
       <c r="H214" s="26"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8">
       <c r="B215" s="9">
         <v>40585</v>
       </c>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="H215" s="26"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8">
       <c r="B216" s="9">
         <v>40599</v>
       </c>
@@ -4992,7 +5003,7 @@
       </c>
       <c r="H216" s="26"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8">
       <c r="B217" s="9">
         <v>40634</v>
       </c>
@@ -5013,7 +5024,7 @@
       </c>
       <c r="H217" s="26"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8">
       <c r="B218" s="9">
         <v>40648</v>
       </c>
@@ -5034,7 +5045,7 @@
       </c>
       <c r="H218" s="26"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8">
       <c r="B219" s="9">
         <v>40669</v>
       </c>
@@ -5055,7 +5066,7 @@
       </c>
       <c r="H219" s="26"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8">
       <c r="B220" s="9">
         <v>40690</v>
       </c>
@@ -5076,7 +5087,7 @@
       </c>
       <c r="H220" s="26"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8">
       <c r="B221" s="9">
         <v>40704</v>
       </c>
@@ -5097,7 +5108,7 @@
       </c>
       <c r="H221" s="26"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8">
       <c r="B222" s="9">
         <v>40739</v>
       </c>
@@ -5118,7 +5129,7 @@
       </c>
       <c r="H222" s="26"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8">
       <c r="B223" s="9">
         <v>40767</v>
       </c>
@@ -5139,7 +5150,7 @@
       </c>
       <c r="H223" s="26"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8">
       <c r="B224" s="9">
         <v>40795</v>
       </c>
@@ -5160,7 +5171,7 @@
       </c>
       <c r="H224" s="26"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="B225" s="9">
         <v>40809</v>
       </c>
@@ -5181,7 +5192,7 @@
       </c>
       <c r="H225" s="26"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="B226" s="9">
         <v>40830</v>
       </c>
@@ -5202,7 +5213,7 @@
       </c>
       <c r="H226" s="26"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10">
       <c r="B227" s="9">
         <v>40844</v>
       </c>
@@ -5223,7 +5234,7 @@
       </c>
       <c r="H227" s="26"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="B228" s="9">
         <v>40858</v>
       </c>
@@ -5244,7 +5255,7 @@
       </c>
       <c r="H228" s="26"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="B229" s="9">
         <v>40872</v>
       </c>
@@ -5265,7 +5276,7 @@
       </c>
       <c r="H229" s="26"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10">
       <c r="B230" s="9">
         <v>40893</v>
       </c>
@@ -5286,7 +5297,7 @@
       </c>
       <c r="H230" s="26"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10">
       <c r="B231" s="9">
         <v>40921</v>
       </c>
@@ -5307,7 +5318,7 @@
       </c>
       <c r="H231" s="26"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10">
       <c r="B232" s="9">
         <v>40935</v>
       </c>
@@ -5328,7 +5339,7 @@
       </c>
       <c r="H232" s="26"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10">
       <c r="B233" s="9">
         <v>40949</v>
       </c>
@@ -5349,7 +5360,7 @@
       </c>
       <c r="H233" s="26"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10">
       <c r="B234" s="9">
         <v>40977</v>
       </c>
@@ -5368,7 +5379,7 @@
       </c>
       <c r="H234" s="26"/>
     </row>
-    <row r="235" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" s="5" customFormat="1">
       <c r="A235" s="13"/>
       <c r="B235" s="9">
         <v>40998</v>
@@ -5388,7 +5399,7 @@
       </c>
       <c r="H235" s="26"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10">
       <c r="B236" s="9">
         <v>41026</v>
       </c>
@@ -5409,7 +5420,7 @@
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10">
       <c r="B237" s="9">
         <v>41045</v>
       </c>
@@ -5430,7 +5441,7 @@
       </c>
       <c r="H237" s="26"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10">
       <c r="B238" s="9">
         <v>41054</v>
       </c>
@@ -5449,7 +5460,7 @@
       </c>
       <c r="H238" s="26"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10">
       <c r="B239" s="9">
         <v>41075</v>
       </c>
@@ -5468,7 +5479,7 @@
       </c>
       <c r="H239" s="26"/>
     </row>
-    <row r="240" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" s="7" customFormat="1">
       <c r="B240" s="9">
         <v>41103</v>
       </c>
@@ -5487,7 +5498,7 @@
       </c>
       <c r="H240" s="26"/>
     </row>
-    <row r="241" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8" s="8" customFormat="1">
       <c r="B241" s="9">
         <v>41145</v>
       </c>
@@ -5505,7 +5516,7 @@
       </c>
       <c r="H241" s="26"/>
     </row>
-    <row r="242" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8" s="8" customFormat="1">
       <c r="B242" s="9">
         <v>41166</v>
       </c>
@@ -5523,7 +5534,7 @@
       </c>
       <c r="H242" s="26"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8">
       <c r="B243" s="11">
         <v>41180</v>
       </c>
@@ -5542,7 +5553,7 @@
       </c>
       <c r="H243" s="26"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8">
       <c r="B244" s="11">
         <v>41193</v>
       </c>
@@ -5561,7 +5572,7 @@
       </c>
       <c r="H244" s="26"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8">
       <c r="B245" s="11">
         <v>41208</v>
       </c>
@@ -5580,7 +5591,7 @@
       </c>
       <c r="H245" s="26"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:8">
       <c r="B246" s="11">
         <v>41229</v>
       </c>
@@ -5599,7 +5610,7 @@
       </c>
       <c r="H246" s="26"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:8">
       <c r="B247" s="14">
         <v>41243</v>
       </c>
@@ -5618,7 +5629,7 @@
       </c>
       <c r="H247" s="26"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8">
       <c r="B248" s="14">
         <v>41257</v>
       </c>
@@ -5637,7 +5648,7 @@
       </c>
       <c r="H248" s="26"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8">
       <c r="B249" s="14">
         <v>41285</v>
       </c>
@@ -5656,7 +5667,7 @@
       </c>
       <c r="H249" s="26"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8">
       <c r="B250" s="14">
         <v>41299</v>
       </c>
@@ -5675,7 +5686,7 @@
       </c>
       <c r="H250" s="26"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8">
       <c r="B251" s="14">
         <v>41327</v>
       </c>
@@ -5694,7 +5705,7 @@
       </c>
       <c r="H251" s="26"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8">
       <c r="B252" s="14">
         <v>41341</v>
       </c>
@@ -5713,7 +5724,7 @@
       </c>
       <c r="H252" s="26"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8">
       <c r="B253" s="14">
         <v>41355</v>
       </c>
@@ -5732,7 +5743,7 @@
       </c>
       <c r="H253" s="26"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8">
       <c r="B254" s="14">
         <v>41376</v>
       </c>
@@ -5751,7 +5762,7 @@
       </c>
       <c r="H254" s="26"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:8">
       <c r="B255" s="14">
         <v>41390</v>
       </c>
@@ -5770,7 +5781,7 @@
       </c>
       <c r="H255" s="26"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:8">
       <c r="B256" s="14">
         <v>41411</v>
       </c>
@@ -5789,7 +5800,7 @@
       </c>
       <c r="H256" s="26"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="B257" s="14">
         <v>41432</v>
       </c>
@@ -5808,7 +5819,7 @@
       </c>
       <c r="H257" s="26"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="B258" s="14">
         <v>41453</v>
       </c>
@@ -5827,7 +5838,7 @@
       </c>
       <c r="H258" s="26"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="B259" s="14">
         <v>41467</v>
       </c>
@@ -5846,7 +5857,7 @@
       </c>
       <c r="H259" s="26"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="B260" s="14">
         <v>41488</v>
       </c>
@@ -5865,7 +5876,7 @@
       </c>
       <c r="H260" s="26"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="B261" s="14">
         <v>41502</v>
       </c>
@@ -5884,7 +5895,7 @@
       </c>
       <c r="H261" s="26"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="B262" s="14">
         <v>41509</v>
       </c>
@@ -5903,7 +5914,7 @@
       </c>
       <c r="H262" s="26"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="B263" s="14">
         <v>41515</v>
       </c>
@@ -5922,7 +5933,7 @@
       </c>
       <c r="H263" s="26"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="B264" s="14">
         <v>41522</v>
       </c>
@@ -5941,7 +5952,7 @@
       </c>
       <c r="H264" s="26"/>
     </row>
-    <row r="265" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="12" customHeight="1">
       <c r="A265" s="16"/>
       <c r="B265" s="9">
         <v>41530</v>
@@ -5961,7 +5972,7 @@
       </c>
       <c r="H265" s="26"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="B266" s="14">
         <v>41656</v>
       </c>
@@ -5982,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="B267" s="14">
         <v>41670</v>
       </c>
@@ -6003,7 +6014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="B268" s="14">
         <v>41691</v>
       </c>
@@ -6024,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="B269" s="19">
         <v>41712</v>
       </c>
@@ -6045,7 +6056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="B270" s="19">
         <v>41726</v>
       </c>
@@ -6066,7 +6077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="B271" s="14">
         <v>41740</v>
       </c>
@@ -6087,7 +6098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="B272" s="14">
         <v>41768</v>
       </c>
@@ -6108,7 +6119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:8">
       <c r="B273" s="14">
         <v>41795</v>
       </c>
@@ -6129,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:8">
       <c r="B274" s="14">
         <v>41817</v>
       </c>
@@ -6150,7 +6161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8">
       <c r="B275" s="14">
         <v>41838</v>
       </c>
@@ -6171,7 +6182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8">
       <c r="B276" s="14">
         <v>41873</v>
       </c>
@@ -6192,7 +6203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8">
       <c r="B277" s="14">
         <v>41887</v>
       </c>
@@ -6213,7 +6224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8">
       <c r="B278" s="14">
         <v>41908</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:8">
       <c r="B279" s="14">
         <v>41922</v>
       </c>
@@ -6255,7 +6266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:8">
       <c r="B280" s="14">
         <v>41936</v>
       </c>
@@ -6276,7 +6287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8">
       <c r="B281" s="9">
         <v>41957</v>
       </c>
@@ -6297,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:8">
       <c r="B282" s="14">
         <v>41971</v>
       </c>
@@ -6318,7 +6329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:8">
       <c r="B283" s="14">
         <v>41985</v>
       </c>
@@ -6339,7 +6350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:8">
       <c r="B284" s="14">
         <v>42020</v>
       </c>
@@ -6360,7 +6371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:8">
       <c r="B285" s="14">
         <v>42034</v>
       </c>
@@ -6381,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8">
       <c r="B286" s="14">
         <v>42062</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:8">
       <c r="B287" s="14">
         <v>42076</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8">
       <c r="B288" s="14">
         <v>42090</v>
       </c>
@@ -6444,7 +6455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:8">
       <c r="B289" s="14">
         <v>42111</v>
       </c>
@@ -6465,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:8">
       <c r="B290" s="14">
         <v>42146</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:8">
       <c r="B291" s="14">
         <v>42167</v>
       </c>
@@ -6507,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:8">
       <c r="B292" s="14">
         <v>42188</v>
       </c>
@@ -6528,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:8">
       <c r="B293" s="14">
         <v>42209</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:8">
       <c r="B294" s="19">
         <v>42237</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:8">
       <c r="B295" s="14">
         <v>42258</v>
       </c>
@@ -6591,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:8">
       <c r="B296" s="14">
         <v>42272</v>
       </c>
@@ -6612,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:8">
       <c r="B297" s="14">
         <v>42286</v>
       </c>
@@ -6633,7 +6644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:8">
       <c r="B298" s="14">
         <v>42300</v>
       </c>
@@ -6654,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:8">
       <c r="B299" s="14">
         <v>42321</v>
       </c>
@@ -6675,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:8">
       <c r="B300" s="14">
         <v>42335</v>
       </c>
@@ -6696,7 +6707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:8">
       <c r="B301" s="14">
         <v>42349</v>
       </c>
@@ -6717,7 +6728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:8">
       <c r="B302" s="14">
         <v>42384</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:8">
       <c r="B303" s="14">
         <v>42398</v>
       </c>
@@ -6759,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:8">
       <c r="B304" s="14">
         <v>42419</v>
       </c>
@@ -6780,7 +6791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:8">
       <c r="B305" s="14">
         <v>42447</v>
       </c>
@@ -6801,7 +6812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:8">
       <c r="B306" s="14">
         <v>42468</v>
       </c>
@@ -6822,7 +6833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:8">
       <c r="B307" s="14">
         <v>42482</v>
       </c>
@@ -6843,7 +6854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:8">
       <c r="B308" s="14">
         <v>42503</v>
       </c>
@@ -6864,7 +6875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:8">
       <c r="B309" s="14">
         <v>42524</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:8">
       <c r="B310" s="14">
         <v>42545</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:8">
       <c r="B311" s="14">
         <v>42559</v>
       </c>
@@ -6927,7 +6938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:8">
       <c r="B312" s="14">
         <v>42573</v>
       </c>
@@ -6948,7 +6959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:8">
       <c r="B313" s="14">
         <v>42594</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:8">
       <c r="B314" s="14">
         <v>42636</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:8">
       <c r="B315" s="14">
         <v>42657</v>
       </c>
@@ -7011,7 +7022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:8">
       <c r="B316" s="14">
         <v>42671</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:8">
       <c r="B317" s="14">
         <v>42685</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:8">
       <c r="B318" s="22" t="s">
         <v>7</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:8">
       <c r="B319" s="14">
         <v>42713</v>
       </c>
@@ -7095,7 +7106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:8">
       <c r="B320" s="14">
         <v>42748</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:8">
       <c r="B321" s="14">
         <v>42762</v>
       </c>
@@ -7137,7 +7148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:8">
       <c r="B322" s="19">
         <v>42783</v>
       </c>
@@ -7158,7 +7169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:8">
       <c r="B323" s="14">
         <v>42804</v>
       </c>
@@ -7179,7 +7190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:8">
       <c r="B324" s="29">
         <v>42832</v>
       </c>
@@ -7200,7 +7211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:8">
       <c r="B325" s="14">
         <v>42853</v>
       </c>
@@ -7229,8 +7240,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7240,11 +7256,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7254,10 +7275,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>